--- a/productos/producto_import.xlsx
+++ b/productos/producto_import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\tienda\tienda\productos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25DF027-A569-44C4-9CC5-3597560901A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Data" sheetId="1" r:id="rId1"/>
@@ -33,16 +34,16 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Otro 1</t>
-  </si>
-  <si>
-    <t>Otro 2</t>
+    <t>Final Fantasy XIV</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,17 +354,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,7 +380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -391,7 +394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
